--- a/CAP2006.xlsx
+++ b/CAP2006.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorrit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E06DE8-9729-4940-B62C-D57F86E06D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929A127E-19D4-4871-86C2-CA86C188242E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,6 +875,54 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -920,59 +968,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1677,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1693,40 +1693,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="38"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="5">
@@ -1745,18 +1745,18 @@
       <c r="G2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="33" t="s">
+      <c r="H2" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B3" s="5">
@@ -1775,18 +1775,18 @@
       <c r="G3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="33" t="s">
+      <c r="H3" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="5">
@@ -1805,28 +1805,28 @@
       <c r="G4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="33" t="s">
+      <c r="H4" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="14">
         <v>28</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="15">
         <v>6.5</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36">
+      <c r="D5" s="15"/>
+      <c r="E5" s="16">
         <v>7.4</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1835,28 +1835,28 @@
       <c r="G5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="33" t="s">
+      <c r="H5" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="14">
         <v>28</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="15">
         <v>6.6</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36">
+      <c r="D6" s="15"/>
+      <c r="E6" s="16">
         <v>7.7</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1865,28 +1865,28 @@
       <c r="G6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="33" t="s">
+      <c r="H6" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="14">
         <v>28</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="15">
         <v>11.6</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36">
+      <c r="D7" s="15"/>
+      <c r="E7" s="16">
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1895,18 +1895,18 @@
       <c r="G7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="33" t="s">
+      <c r="H7" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="5">
@@ -1925,18 +1925,18 @@
       <c r="G8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="33" t="s">
+      <c r="H8" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="5">
@@ -1955,18 +1955,18 @@
       <c r="G9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="33" t="s">
+      <c r="H9" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="5">
@@ -1985,28 +1985,28 @@
       <c r="G10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="33" t="s">
+      <c r="H10" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="14">
         <v>30</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="15">
         <v>6.9</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36">
+      <c r="D11" s="15"/>
+      <c r="E11" s="16">
         <v>5.7</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -2015,28 +2015,28 @@
       <c r="G11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="33" t="s">
+      <c r="H11" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="14">
         <v>30</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="15">
         <v>6.9</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36">
+      <c r="D12" s="15"/>
+      <c r="E12" s="16">
         <v>5.6</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -2045,28 +2045,28 @@
       <c r="G12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="33" t="s">
+      <c r="H12" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="14">
         <v>30</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="15">
         <v>11</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36">
+      <c r="D13" s="15"/>
+      <c r="E13" s="16">
         <v>6.7</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -2075,18 +2075,18 @@
       <c r="G13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="33" t="s">
+      <c r="H13" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="5">
@@ -2105,18 +2105,18 @@
       <c r="G14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="33" t="s">
+      <c r="H14" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5">
@@ -2135,18 +2135,18 @@
       <c r="G15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="33" t="s">
+      <c r="H15" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="5">
@@ -2165,28 +2165,28 @@
       <c r="G16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="33" t="s">
+      <c r="H16" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="14">
         <v>159</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="15">
         <v>6.7</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36">
+      <c r="D17" s="15"/>
+      <c r="E17" s="16">
         <v>2.9</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -2195,28 +2195,28 @@
       <c r="G17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="33" t="s">
+      <c r="H17" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="14">
         <v>159</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="15">
         <v>6.7</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36">
+      <c r="D18" s="15"/>
+      <c r="E18" s="16">
         <v>2.7</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -2225,28 +2225,28 @@
       <c r="G18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="33" t="s">
+      <c r="H18" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="14">
         <v>159</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="15">
         <v>11.4</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36">
+      <c r="D19" s="15"/>
+      <c r="E19" s="16">
         <v>3.5</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -2255,18 +2255,18 @@
       <c r="G19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" s="33" t="s">
+      <c r="H19" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="5">
@@ -2285,18 +2285,18 @@
       <c r="G20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" s="33" t="s">
+      <c r="H20" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="5">
@@ -2315,18 +2315,18 @@
       <c r="G21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="33" t="s">
+      <c r="H21" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="5">
@@ -2345,28 +2345,28 @@
       <c r="G22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" s="33" t="s">
+      <c r="H22" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="14">
         <v>310</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="15">
         <v>6.6</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36">
+      <c r="D23" s="15"/>
+      <c r="E23" s="16">
         <v>4.4000000000000004</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -2375,28 +2375,28 @@
       <c r="G23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" s="33" t="s">
+      <c r="H23" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="14">
         <v>310</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="15">
         <v>6.6</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36">
+      <c r="D24" s="15"/>
+      <c r="E24" s="16">
         <v>4.3</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -2405,28 +2405,28 @@
       <c r="G24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="33" t="s">
+      <c r="H24" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="14">
         <v>310</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="15">
         <v>11.4</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36">
+      <c r="D25" s="15"/>
+      <c r="E25" s="16">
         <v>4.7</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -2435,18 +2435,18 @@
       <c r="G25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" s="33" t="s">
+      <c r="H25" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="5">
@@ -2465,18 +2465,18 @@
       <c r="G26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I26" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" s="33" t="s">
+      <c r="H26" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B27" s="5">
@@ -2495,18 +2495,18 @@
       <c r="G27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27" s="33" t="s">
+      <c r="H27" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="5">
@@ -2525,28 +2525,28 @@
       <c r="G28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J28" s="33" t="s">
+      <c r="H28" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="14">
         <v>130</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="15">
         <v>7.2</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36">
+      <c r="D29" s="15"/>
+      <c r="E29" s="16">
         <v>2.6</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -2555,28 +2555,28 @@
       <c r="G29" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J29" s="33" t="s">
+      <c r="H29" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="14">
         <v>130</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="15">
         <v>7.2</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36">
+      <c r="D30" s="15"/>
+      <c r="E30" s="16">
         <v>2.6</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -2585,28 +2585,28 @@
       <c r="G30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J30" s="33" t="s">
+      <c r="H30" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="14">
         <v>130</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="15">
         <v>12.3</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="36">
+      <c r="D31" s="15"/>
+      <c r="E31" s="16">
         <v>2.4</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -2615,18 +2615,18 @@
       <c r="G31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J31" s="33" t="s">
+      <c r="H31" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B32" s="5">
@@ -2645,18 +2645,18 @@
       <c r="G32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J32" s="33" t="s">
+      <c r="H32" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="5">
@@ -2675,18 +2675,18 @@
       <c r="G33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I33" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J33" s="33" t="s">
+      <c r="H33" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="5">
@@ -2705,28 +2705,28 @@
       <c r="G34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I34" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="33" t="s">
+      <c r="H34" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="34">
+      <c r="B35" s="14">
         <v>13</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="15">
         <v>6.9</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="36">
+      <c r="D35" s="15"/>
+      <c r="E35" s="16">
         <v>5.0999999999999996</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -2735,28 +2735,28 @@
       <c r="G35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I35" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J35" s="33" t="s">
+      <c r="H35" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="34">
+      <c r="B36" s="14">
         <v>13</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="15">
         <v>6.8</v>
       </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="36">
+      <c r="D36" s="15"/>
+      <c r="E36" s="16">
         <v>5.5</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -2765,28 +2765,28 @@
       <c r="G36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I36" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J36" s="33" t="s">
+      <c r="H36" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="34">
+      <c r="B37" s="14">
         <v>13</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="15">
         <v>11.8</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="36">
+      <c r="D37" s="15"/>
+      <c r="E37" s="16">
         <v>3.6</v>
       </c>
       <c r="F37" s="6" t="s">
@@ -2795,28 +2795,28 @@
       <c r="G37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I37" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J37" s="33" t="s">
+      <c r="H37" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="34">
+      <c r="B38" s="14">
         <v>10</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="15">
         <v>13.6</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="36">
+      <c r="D38" s="15"/>
+      <c r="E38" s="16">
         <v>2.7</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -2825,28 +2825,28 @@
       <c r="G38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I38" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J38" s="33" t="s">
+      <c r="H38" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="34">
+      <c r="B39" s="14">
         <v>10</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="15">
         <v>5.6</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="40">
+      <c r="D39" s="15"/>
+      <c r="E39" s="20">
         <v>8</v>
       </c>
       <c r="F39" s="6" t="s">
@@ -2855,28 +2855,28 @@
       <c r="G39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H39" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I39" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J39" s="33" t="s">
+      <c r="H39" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="34">
+      <c r="B40" s="14">
         <v>10</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C40" s="15">
         <v>10.199999999999999</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36">
+      <c r="D40" s="15"/>
+      <c r="E40" s="16">
         <v>5.9</v>
       </c>
       <c r="F40" s="6" t="s">
@@ -2885,102 +2885,102 @@
       <c r="G40" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H40" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I40" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J40" s="33" t="s">
+      <c r="H40" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41" s="21">
         <v>9</v>
       </c>
-      <c r="C41" s="35">
-        <v>7.6</v>
-      </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
+      <c r="C41" s="15">
+        <v>15.2</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
       <c r="F41" s="6" t="s">
         <v>51</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I41" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J41" s="33" t="s">
+      <c r="H41" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="41">
+      <c r="B42" s="21">
         <v>9</v>
       </c>
-      <c r="C42" s="35">
-        <v>7.6</v>
-      </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
+      <c r="C42" s="15">
+        <v>6</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
       <c r="F42" s="6" t="s">
         <v>52</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I42" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J42" s="33" t="s">
+      <c r="H42" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="41">
+      <c r="B43" s="21">
         <v>9</v>
       </c>
-      <c r="C43" s="35">
-        <v>14.8</v>
-      </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="36"/>
+      <c r="C43" s="15">
+        <v>11.2</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
       <c r="F43" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H43" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I43" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J43" s="33" t="s">
+      <c r="H43" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="5">
@@ -2999,18 +2999,18 @@
       <c r="G44" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I44" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J44" s="33" t="s">
+      <c r="H44" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B45" s="5">
@@ -3029,18 +3029,18 @@
       <c r="G45" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H45" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I45" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J45" s="33" t="s">
+      <c r="H45" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J45" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="5">
@@ -3059,28 +3059,28 @@
       <c r="G46" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I46" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J46" s="33" t="s">
+      <c r="H46" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J46" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="34">
+      <c r="B47" s="14">
         <v>23</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="15">
         <v>6.9</v>
       </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="36">
+      <c r="D47" s="15"/>
+      <c r="E47" s="16">
         <v>2.9</v>
       </c>
       <c r="F47" s="6" t="s">
@@ -3089,28 +3089,28 @@
       <c r="G47" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H47" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I47" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J47" s="33" t="s">
+      <c r="H47" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J47" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="34">
+      <c r="B48" s="14">
         <v>23</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="15">
         <v>6.9</v>
       </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="36">
+      <c r="D48" s="15"/>
+      <c r="E48" s="16">
         <v>3.1</v>
       </c>
       <c r="F48" s="6" t="s">
@@ -3119,28 +3119,28 @@
       <c r="G48" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H48" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I48" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J48" s="33" t="s">
+      <c r="H48" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="34">
+      <c r="B49" s="14">
         <v>23</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="15">
         <v>11.6</v>
       </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="36">
+      <c r="D49" s="15"/>
+      <c r="E49" s="16">
         <v>3.6</v>
       </c>
       <c r="F49" s="6" t="s">
@@ -3149,18 +3149,18 @@
       <c r="G49" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H49" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I49" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J49" s="33" t="s">
+      <c r="H49" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J49" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B50" s="5">
@@ -3179,18 +3179,18 @@
       <c r="G50" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I50" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J50" s="33" t="s">
+      <c r="H50" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J50" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B51" s="5">
@@ -3209,18 +3209,18 @@
       <c r="G51" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H51" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I51" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J51" s="33" t="s">
+      <c r="H51" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J51" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B52" s="5">
@@ -3239,28 +3239,28 @@
       <c r="G52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H52" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I52" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J52" s="33" t="s">
+      <c r="H52" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J52" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="34">
+      <c r="B53" s="14">
         <v>239</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="15">
         <v>7.1</v>
       </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="36">
+      <c r="D53" s="15"/>
+      <c r="E53" s="16">
         <v>3.2</v>
       </c>
       <c r="F53" s="6" t="s">
@@ -3269,28 +3269,28 @@
       <c r="G53" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H53" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I53" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J53" s="33" t="s">
+      <c r="H53" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J53" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="34">
+      <c r="B54" s="14">
         <v>239</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C54" s="15">
         <v>7.1</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="36">
+      <c r="D54" s="15"/>
+      <c r="E54" s="16">
         <v>3</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -3299,28 +3299,28 @@
       <c r="G54" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H54" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I54" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J54" s="33" t="s">
+      <c r="H54" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J54" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="34">
+      <c r="B55" s="14">
         <v>239</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C55" s="15">
         <v>12.2</v>
       </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="36">
+      <c r="D55" s="15"/>
+      <c r="E55" s="16">
         <v>3</v>
       </c>
       <c r="F55" s="6" t="s">
@@ -3329,18 +3329,18 @@
       <c r="G55" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H55" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I55" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J55" s="33" t="s">
+      <c r="H55" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J55" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B56" s="5">
@@ -3359,18 +3359,18 @@
       <c r="G56" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H56" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I56" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J56" s="33" t="s">
+      <c r="H56" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J56" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B57" s="5">
@@ -3389,18 +3389,18 @@
       <c r="G57" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H57" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I57" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J57" s="33" t="s">
+      <c r="H57" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J57" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B58" s="5">
@@ -3419,28 +3419,28 @@
       <c r="G58" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H58" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I58" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J58" s="33" t="s">
+      <c r="H58" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="34">
+      <c r="B59" s="14">
         <v>54</v>
       </c>
-      <c r="C59" s="35">
+      <c r="C59" s="15">
         <v>6.9</v>
       </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="36">
+      <c r="D59" s="15"/>
+      <c r="E59" s="16">
         <v>2.6</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -3449,28 +3449,28 @@
       <c r="G59" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H59" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I59" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J59" s="33" t="s">
+      <c r="H59" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J59" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="34">
+      <c r="B60" s="14">
         <v>54</v>
       </c>
-      <c r="C60" s="35">
+      <c r="C60" s="15">
         <v>6.9</v>
       </c>
-      <c r="D60" s="35"/>
-      <c r="E60" s="36">
+      <c r="D60" s="15"/>
+      <c r="E60" s="16">
         <v>2.2000000000000002</v>
       </c>
       <c r="F60" s="6" t="s">
@@ -3479,28 +3479,28 @@
       <c r="G60" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H60" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I60" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J60" s="33" t="s">
+      <c r="H60" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J60" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="34">
+      <c r="B61" s="14">
         <v>54</v>
       </c>
-      <c r="C61" s="35">
+      <c r="C61" s="15">
         <v>12</v>
       </c>
-      <c r="D61" s="35"/>
-      <c r="E61" s="36">
+      <c r="D61" s="15"/>
+      <c r="E61" s="16">
         <v>2.6</v>
       </c>
       <c r="F61" s="6" t="s">
@@ -3509,18 +3509,18 @@
       <c r="G61" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H61" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I61" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J61" s="33" t="s">
+      <c r="H61" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J61" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="39" t="s">
+      <c r="A62" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B62" s="5">
@@ -3539,18 +3539,18 @@
       <c r="G62" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H62" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I62" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J62" s="33" t="s">
+      <c r="H62" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J62" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B63" s="5">
@@ -3569,18 +3569,18 @@
       <c r="G63" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I63" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J63" s="33" t="s">
+      <c r="H63" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J63" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="39" t="s">
+      <c r="A64" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B64" s="5">
@@ -3599,28 +3599,28 @@
       <c r="G64" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H64" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I64" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J64" s="33" t="s">
+      <c r="H64" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J64" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="34">
+      <c r="B65" s="14">
         <v>494</v>
       </c>
-      <c r="C65" s="35">
+      <c r="C65" s="15">
         <v>7.1</v>
       </c>
-      <c r="D65" s="35"/>
-      <c r="E65" s="36">
+      <c r="D65" s="15"/>
+      <c r="E65" s="16">
         <v>3.7</v>
       </c>
       <c r="F65" s="6" t="s">
@@ -3629,28 +3629,28 @@
       <c r="G65" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H65" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I65" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J65" s="33" t="s">
+      <c r="H65" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J65" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="34">
+      <c r="B66" s="14">
         <v>494</v>
       </c>
-      <c r="C66" s="35">
+      <c r="C66" s="15">
         <v>7.1</v>
       </c>
-      <c r="D66" s="35"/>
-      <c r="E66" s="36">
+      <c r="D66" s="15"/>
+      <c r="E66" s="16">
         <v>3.6</v>
       </c>
       <c r="F66" s="6" t="s">
@@ -3659,28 +3659,28 @@
       <c r="G66" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H66" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I66" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J66" s="33" t="s">
+      <c r="H66" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J66" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="34">
+      <c r="B67" s="14">
         <v>494</v>
       </c>
-      <c r="C67" s="35">
+      <c r="C67" s="15">
         <v>11.5</v>
       </c>
-      <c r="D67" s="35"/>
-      <c r="E67" s="36">
+      <c r="D67" s="15"/>
+      <c r="E67" s="16">
         <v>3.7</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -3689,18 +3689,18 @@
       <c r="G67" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H67" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I67" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J67" s="33" t="s">
+      <c r="H67" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J67" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B68" s="5">
@@ -3719,18 +3719,18 @@
       <c r="G68" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H68" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I68" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J68" s="33" t="s">
+      <c r="H68" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J68" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="5">
@@ -3749,18 +3749,18 @@
       <c r="G69" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H69" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I69" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J69" s="33" t="s">
+      <c r="H69" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J69" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="5">
@@ -3779,28 +3779,28 @@
       <c r="G70" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H70" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I70" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J70" s="33" t="s">
+      <c r="H70" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J70" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="39" t="s">
+      <c r="A71" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="34">
+      <c r="B71" s="14">
         <v>18</v>
       </c>
-      <c r="C71" s="35">
+      <c r="C71" s="15">
         <v>6.7</v>
       </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="36">
+      <c r="D71" s="15"/>
+      <c r="E71" s="16">
         <v>7</v>
       </c>
       <c r="F71" s="6" t="s">
@@ -3809,28 +3809,28 @@
       <c r="G71" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H71" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I71" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J71" s="33" t="s">
+      <c r="H71" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J71" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="39" t="s">
+      <c r="A72" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="34">
+      <c r="B72" s="14">
         <v>18</v>
       </c>
-      <c r="C72" s="35">
+      <c r="C72" s="15">
         <v>6.7</v>
       </c>
-      <c r="D72" s="35"/>
-      <c r="E72" s="36">
+      <c r="D72" s="15"/>
+      <c r="E72" s="16">
         <v>7.7</v>
       </c>
       <c r="F72" s="6" t="s">
@@ -3839,28 +3839,28 @@
       <c r="G72" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H72" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I72" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J72" s="33" t="s">
+      <c r="H72" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J72" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="34">
+      <c r="B73" s="14">
         <v>18</v>
       </c>
-      <c r="C73" s="35">
+      <c r="C73" s="15">
         <v>11.4</v>
       </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="36">
+      <c r="D73" s="15"/>
+      <c r="E73" s="16">
         <v>7.5</v>
       </c>
       <c r="F73" s="6" t="s">
@@ -3869,18 +3869,18 @@
       <c r="G73" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H73" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I73" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J73" s="33" t="s">
+      <c r="H73" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J73" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="39" t="s">
+      <c r="A74" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B74" s="5">
@@ -3899,18 +3899,18 @@
       <c r="G74" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H74" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I74" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J74" s="33" t="s">
+      <c r="H74" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J74" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B75" s="5">
@@ -3929,18 +3929,18 @@
       <c r="G75" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H75" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I75" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J75" s="33" t="s">
+      <c r="H75" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J75" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="39" t="s">
+      <c r="A76" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B76" s="5">
@@ -3959,28 +3959,28 @@
       <c r="G76" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H76" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I76" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J76" s="33" t="s">
+      <c r="H76" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J76" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="39" t="s">
+      <c r="A77" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="34">
+      <c r="B77" s="14">
         <v>26</v>
       </c>
-      <c r="C77" s="35">
+      <c r="C77" s="15">
         <v>7.3</v>
       </c>
-      <c r="D77" s="35"/>
-      <c r="E77" s="36">
+      <c r="D77" s="15"/>
+      <c r="E77" s="16">
         <v>4.3</v>
       </c>
       <c r="F77" s="6" t="s">
@@ -3989,28 +3989,28 @@
       <c r="G77" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H77" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I77" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J77" s="33" t="s">
+      <c r="H77" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J77" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="39" t="s">
+      <c r="A78" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="34">
+      <c r="B78" s="14">
         <v>26</v>
       </c>
-      <c r="C78" s="35">
+      <c r="C78" s="15">
         <v>7.2</v>
       </c>
-      <c r="D78" s="35"/>
-      <c r="E78" s="36">
+      <c r="D78" s="15"/>
+      <c r="E78" s="16">
         <v>4.3</v>
       </c>
       <c r="F78" s="6" t="s">
@@ -4019,28 +4019,28 @@
       <c r="G78" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H78" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I78" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J78" s="33" t="s">
+      <c r="H78" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J78" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="39" t="s">
+      <c r="A79" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="34">
+      <c r="B79" s="14">
         <v>26</v>
       </c>
-      <c r="C79" s="35">
+      <c r="C79" s="15">
         <v>12.4</v>
       </c>
-      <c r="D79" s="35"/>
-      <c r="E79" s="36">
+      <c r="D79" s="15"/>
+      <c r="E79" s="16">
         <v>4.5</v>
       </c>
       <c r="F79" s="6" t="s">
@@ -4049,186 +4049,186 @@
       <c r="G79" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H79" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I79" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J79" s="33" t="s">
+      <c r="H79" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J79" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="39" t="s">
+      <c r="A80" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="34">
+      <c r="B80" s="14">
         <v>9</v>
       </c>
-      <c r="C80" s="35">
+      <c r="C80" s="15">
         <v>15.2</v>
       </c>
-      <c r="D80" s="35"/>
-      <c r="E80" s="36"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="16"/>
       <c r="F80" s="6" t="s">
         <v>51</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H80" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I80" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J80" s="33" t="s">
+      <c r="H80" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J80" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="39" t="s">
+      <c r="A81" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B81" s="34">
+      <c r="B81" s="14">
         <v>9</v>
       </c>
-      <c r="C81" s="35">
+      <c r="C81" s="15">
         <v>6</v>
       </c>
-      <c r="D81" s="35"/>
-      <c r="E81" s="36"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="16"/>
       <c r="F81" s="6" t="s">
         <v>52</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H81" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I81" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J81" s="33" t="s">
+      <c r="H81" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J81" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="39" t="s">
+      <c r="A82" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="34">
+      <c r="B82" s="14">
         <v>9</v>
       </c>
-      <c r="C82" s="35">
+      <c r="C82" s="15">
         <v>11.2</v>
       </c>
-      <c r="D82" s="35"/>
-      <c r="E82" s="36"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="16"/>
       <c r="F82" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H82" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I82" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J82" s="33" t="s">
+      <c r="H82" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J82" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="39" t="s">
+      <c r="A83" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B83" s="34">
+      <c r="B83" s="14">
         <v>6</v>
       </c>
-      <c r="C83" s="35">
+      <c r="C83" s="15">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D83" s="35"/>
-      <c r="E83" s="36"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="16"/>
       <c r="F83" s="6" t="s">
         <v>51</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H83" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I83" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J83" s="33" t="s">
+      <c r="H83" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J83" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="39" t="s">
+      <c r="A84" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B84" s="34">
+      <c r="B84" s="14">
         <v>6</v>
       </c>
-      <c r="C84" s="35">
+      <c r="C84" s="15">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D84" s="35"/>
-      <c r="E84" s="36"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="16"/>
       <c r="F84" s="6" t="s">
         <v>52</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H84" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I84" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J84" s="33" t="s">
+      <c r="H84" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J84" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B85" s="34">
+      <c r="B85" s="14">
         <v>6</v>
       </c>
-      <c r="C85" s="35">
+      <c r="C85" s="15">
         <v>16.899999999999999</v>
       </c>
-      <c r="D85" s="35"/>
-      <c r="E85" s="36"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="16"/>
       <c r="F85" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H85" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I85" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J85" s="33" t="s">
+      <c r="H85" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J85" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="39" t="s">
+      <c r="A86" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B86" s="5">
@@ -4247,18 +4247,18 @@
       <c r="G86" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H86" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I86" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J86" s="33" t="s">
+      <c r="H86" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J86" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="39" t="s">
+      <c r="A87" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B87" s="5">
@@ -4277,18 +4277,18 @@
       <c r="G87" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H87" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I87" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J87" s="33" t="s">
+      <c r="H87" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J87" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="39" t="s">
+      <c r="A88" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B88" s="5">
@@ -4307,28 +4307,28 @@
       <c r="G88" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H88" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I88" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J88" s="33" t="s">
+      <c r="H88" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J88" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="39" t="s">
+      <c r="A89" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B89" s="34">
+      <c r="B89" s="14">
         <v>27</v>
       </c>
-      <c r="C89" s="35">
+      <c r="C89" s="15">
         <v>6.5</v>
       </c>
-      <c r="D89" s="35"/>
-      <c r="E89" s="36">
+      <c r="D89" s="15"/>
+      <c r="E89" s="16">
         <v>4</v>
       </c>
       <c r="F89" s="6" t="s">
@@ -4337,28 +4337,28 @@
       <c r="G89" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H89" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I89" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J89" s="33" t="s">
+      <c r="H89" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J89" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="39" t="s">
+      <c r="A90" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B90" s="34">
+      <c r="B90" s="14">
         <v>27</v>
       </c>
-      <c r="C90" s="35">
+      <c r="C90" s="15">
         <v>6.5</v>
       </c>
-      <c r="D90" s="35"/>
-      <c r="E90" s="36">
+      <c r="D90" s="15"/>
+      <c r="E90" s="16">
         <v>3.9</v>
       </c>
       <c r="F90" s="6" t="s">
@@ -4367,28 +4367,28 @@
       <c r="G90" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H90" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I90" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J90" s="33" t="s">
+      <c r="H90" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J90" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="39" t="s">
+      <c r="A91" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B91" s="34">
+      <c r="B91" s="14">
         <v>27</v>
       </c>
-      <c r="C91" s="35">
+      <c r="C91" s="15">
         <v>11.5</v>
       </c>
-      <c r="D91" s="35"/>
-      <c r="E91" s="36">
+      <c r="D91" s="15"/>
+      <c r="E91" s="16">
         <v>3.2</v>
       </c>
       <c r="F91" s="6" t="s">
@@ -4397,18 +4397,18 @@
       <c r="G91" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H91" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I91" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J91" s="33" t="s">
+      <c r="H91" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J91" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="39" t="s">
+      <c r="A92" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B92" s="5">
@@ -4427,18 +4427,18 @@
       <c r="G92" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H92" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I92" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J92" s="33" t="s">
+      <c r="H92" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J92" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="39" t="s">
+      <c r="A93" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B93" s="5">
@@ -4457,18 +4457,18 @@
       <c r="G93" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H93" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I93" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J93" s="33" t="s">
+      <c r="H93" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J93" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="39" t="s">
+      <c r="A94" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B94" s="5">
@@ -4487,28 +4487,28 @@
       <c r="G94" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H94" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I94" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J94" s="33" t="s">
+      <c r="H94" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J94" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="39" t="s">
+      <c r="A95" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B95" s="34">
+      <c r="B95" s="14">
         <v>253</v>
       </c>
-      <c r="C95" s="35">
+      <c r="C95" s="15">
         <v>7.1</v>
       </c>
-      <c r="D95" s="35"/>
-      <c r="E95" s="36">
+      <c r="D95" s="15"/>
+      <c r="E95" s="16">
         <v>3.7</v>
       </c>
       <c r="F95" s="6" t="s">
@@ -4517,28 +4517,28 @@
       <c r="G95" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H95" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I95" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J95" s="33" t="s">
+      <c r="H95" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J95" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="39" t="s">
+      <c r="A96" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B96" s="34">
+      <c r="B96" s="14">
         <v>253</v>
       </c>
-      <c r="C96" s="35">
+      <c r="C96" s="15">
         <v>7.1</v>
       </c>
-      <c r="D96" s="35"/>
-      <c r="E96" s="36">
+      <c r="D96" s="15"/>
+      <c r="E96" s="16">
         <v>3.7</v>
       </c>
       <c r="F96" s="6" t="s">
@@ -4547,28 +4547,28 @@
       <c r="G96" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H96" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I96" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J96" s="33" t="s">
+      <c r="H96" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J96" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="39" t="s">
+      <c r="A97" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B97" s="34">
+      <c r="B97" s="14">
         <v>253</v>
       </c>
-      <c r="C97" s="35">
+      <c r="C97" s="15">
         <v>12.1</v>
       </c>
-      <c r="D97" s="35"/>
-      <c r="E97" s="36">
+      <c r="D97" s="15"/>
+      <c r="E97" s="16">
         <v>3.9</v>
       </c>
       <c r="F97" s="6" t="s">
@@ -4577,18 +4577,18 @@
       <c r="G97" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H97" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I97" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J97" s="33" t="s">
+      <c r="H97" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J97" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="44" t="s">
+      <c r="A98" s="24" t="s">
         <v>74</v>
       </c>
       <c r="B98" s="5">
@@ -4607,18 +4607,18 @@
       <c r="G98" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H98" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I98" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J98" s="33" t="s">
+      <c r="H98" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J98" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="44" t="s">
+      <c r="A99" s="24" t="s">
         <v>74</v>
       </c>
       <c r="B99" s="5">
@@ -4637,18 +4637,18 @@
       <c r="G99" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H99" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I99" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J99" s="33" t="s">
+      <c r="H99" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J99" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="44" t="s">
+      <c r="A100" s="24" t="s">
         <v>74</v>
       </c>
       <c r="B100" s="5">
@@ -4667,28 +4667,28 @@
       <c r="G100" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H100" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I100" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J100" s="33" t="s">
+      <c r="H100" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J100" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="44" t="s">
+      <c r="A101" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B101" s="34">
+      <c r="B101" s="14">
         <v>53</v>
       </c>
-      <c r="C101" s="35">
+      <c r="C101" s="15">
         <v>6.8</v>
       </c>
-      <c r="D101" s="35"/>
-      <c r="E101" s="36">
+      <c r="D101" s="15"/>
+      <c r="E101" s="16">
         <v>5.0999999999999996</v>
       </c>
       <c r="F101" s="6" t="s">
@@ -4697,28 +4697,28 @@
       <c r="G101" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H101" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I101" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J101" s="33" t="s">
+      <c r="H101" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J101" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="44" t="s">
+      <c r="A102" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B102" s="34">
+      <c r="B102" s="14">
         <v>53</v>
       </c>
-      <c r="C102" s="35">
+      <c r="C102" s="15">
         <v>6.8</v>
       </c>
-      <c r="D102" s="35"/>
-      <c r="E102" s="36">
+      <c r="D102" s="15"/>
+      <c r="E102" s="16">
         <v>4.8</v>
       </c>
       <c r="F102" s="6" t="s">
@@ -4727,28 +4727,28 @@
       <c r="G102" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H102" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I102" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J102" s="33" t="s">
+      <c r="H102" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J102" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="44" t="s">
+      <c r="A103" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B103" s="34">
+      <c r="B103" s="14">
         <v>53</v>
       </c>
-      <c r="C103" s="35">
+      <c r="C103" s="15">
         <v>11.5</v>
       </c>
-      <c r="D103" s="35"/>
-      <c r="E103" s="36">
+      <c r="D103" s="15"/>
+      <c r="E103" s="16">
         <v>3.8</v>
       </c>
       <c r="F103" s="6" t="s">
@@ -4757,18 +4757,18 @@
       <c r="G103" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H103" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I103" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J103" s="33" t="s">
+      <c r="H103" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J103" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="39" t="s">
+      <c r="A104" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B104" s="5">
@@ -4787,18 +4787,18 @@
       <c r="G104" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H104" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I104" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J104" s="33" t="s">
+      <c r="H104" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J104" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="39" t="s">
+      <c r="A105" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B105" s="5">
@@ -4817,18 +4817,18 @@
       <c r="G105" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H105" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I105" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J105" s="33" t="s">
+      <c r="H105" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J105" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="39" t="s">
+      <c r="A106" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B106" s="5">
@@ -4847,28 +4847,28 @@
       <c r="G106" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H106" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I106" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J106" s="33" t="s">
+      <c r="H106" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I106" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J106" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="39" t="s">
+      <c r="A107" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B107" s="34">
+      <c r="B107" s="14">
         <v>181</v>
       </c>
-      <c r="C107" s="35">
+      <c r="C107" s="15">
         <v>7.3</v>
       </c>
-      <c r="D107" s="35"/>
-      <c r="E107" s="36">
+      <c r="D107" s="15"/>
+      <c r="E107" s="16">
         <v>2.9</v>
       </c>
       <c r="F107" s="6" t="s">
@@ -4877,28 +4877,28 @@
       <c r="G107" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H107" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I107" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J107" s="33" t="s">
+      <c r="H107" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I107" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J107" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="39" t="s">
+      <c r="A108" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B108" s="34">
+      <c r="B108" s="14">
         <v>181</v>
       </c>
-      <c r="C108" s="35">
+      <c r="C108" s="15">
         <v>7.3</v>
       </c>
-      <c r="D108" s="35"/>
-      <c r="E108" s="36">
+      <c r="D108" s="15"/>
+      <c r="E108" s="16">
         <v>2.9</v>
       </c>
       <c r="F108" s="6" t="s">
@@ -4907,28 +4907,28 @@
       <c r="G108" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H108" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I108" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J108" s="33" t="s">
+      <c r="H108" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J108" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="39" t="s">
+      <c r="A109" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B109" s="34">
+      <c r="B109" s="14">
         <v>181</v>
       </c>
-      <c r="C109" s="35">
+      <c r="C109" s="15">
         <v>12.6</v>
       </c>
-      <c r="D109" s="35"/>
-      <c r="E109" s="36">
+      <c r="D109" s="15"/>
+      <c r="E109" s="16">
         <v>3.1</v>
       </c>
       <c r="F109" s="6" t="s">
@@ -4937,18 +4937,18 @@
       <c r="G109" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H109" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I109" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J109" s="33" t="s">
+      <c r="H109" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I109" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J109" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="39" t="s">
+      <c r="A110" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B110" s="5">
@@ -4967,18 +4967,18 @@
       <c r="G110" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H110" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I110" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J110" s="33" t="s">
+      <c r="H110" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J110" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="39" t="s">
+      <c r="A111" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B111" s="5">
@@ -4997,18 +4997,18 @@
       <c r="G111" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H111" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I111" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J111" s="33" t="s">
+      <c r="H111" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I111" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J111" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="39" t="s">
+      <c r="A112" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B112" s="5">
@@ -5027,28 +5027,28 @@
       <c r="G112" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H112" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I112" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J112" s="33" t="s">
+      <c r="H112" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J112" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="39" t="s">
+      <c r="A113" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B113" s="34">
+      <c r="B113" s="14">
         <v>200</v>
       </c>
-      <c r="C113" s="35">
+      <c r="C113" s="15">
         <v>7.1</v>
       </c>
-      <c r="D113" s="35"/>
-      <c r="E113" s="36">
+      <c r="D113" s="15"/>
+      <c r="E113" s="16">
         <v>1.9</v>
       </c>
       <c r="F113" s="6" t="s">
@@ -5057,28 +5057,28 @@
       <c r="G113" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H113" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I113" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J113" s="33" t="s">
+      <c r="H113" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J113" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="39" t="s">
+      <c r="A114" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B114" s="34">
+      <c r="B114" s="14">
         <v>200</v>
       </c>
-      <c r="C114" s="35">
+      <c r="C114" s="15">
         <v>7.1</v>
       </c>
-      <c r="D114" s="35"/>
-      <c r="E114" s="36">
+      <c r="D114" s="15"/>
+      <c r="E114" s="16">
         <v>1.8</v>
       </c>
       <c r="F114" s="6" t="s">
@@ -5087,28 +5087,28 @@
       <c r="G114" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H114" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I114" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J114" s="33" t="s">
+      <c r="H114" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J114" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="39" t="s">
+      <c r="A115" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B115" s="34">
+      <c r="B115" s="14">
         <v>200</v>
       </c>
-      <c r="C115" s="35">
+      <c r="C115" s="15">
         <v>12.3</v>
       </c>
-      <c r="D115" s="35"/>
-      <c r="E115" s="36">
+      <c r="D115" s="15"/>
+      <c r="E115" s="16">
         <v>1.5</v>
       </c>
       <c r="F115" s="6" t="s">
@@ -5117,18 +5117,18 @@
       <c r="G115" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H115" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I115" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J115" s="33" t="s">
+      <c r="H115" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I115" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J115" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="39" t="s">
+      <c r="A116" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B116" s="5">
@@ -5147,18 +5147,18 @@
       <c r="G116" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H116" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I116" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J116" s="33" t="s">
+      <c r="H116" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I116" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J116" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="39" t="s">
+      <c r="A117" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B117" s="5">
@@ -5177,18 +5177,18 @@
       <c r="G117" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H117" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I117" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J117" s="33" t="s">
+      <c r="H117" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I117" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J117" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="39" t="s">
+      <c r="A118" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B118" s="5">
@@ -5207,28 +5207,28 @@
       <c r="G118" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H118" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I118" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J118" s="33" t="s">
+      <c r="H118" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J118" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="39" t="s">
+      <c r="A119" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B119" s="34">
+      <c r="B119" s="14">
         <v>39</v>
       </c>
-      <c r="C119" s="35">
+      <c r="C119" s="15">
         <v>6.7</v>
       </c>
-      <c r="D119" s="35"/>
-      <c r="E119" s="36">
+      <c r="D119" s="15"/>
+      <c r="E119" s="16">
         <v>2.7</v>
       </c>
       <c r="F119" s="6" t="s">
@@ -5237,28 +5237,28 @@
       <c r="G119" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H119" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I119" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J119" s="33" t="s">
+      <c r="H119" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I119" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J119" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="39" t="s">
+      <c r="A120" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B120" s="34">
+      <c r="B120" s="14">
         <v>39</v>
       </c>
-      <c r="C120" s="35">
+      <c r="C120" s="15">
         <v>6.7</v>
       </c>
-      <c r="D120" s="35"/>
-      <c r="E120" s="36">
+      <c r="D120" s="15"/>
+      <c r="E120" s="16">
         <v>3.9</v>
       </c>
       <c r="F120" s="6" t="s">
@@ -5267,28 +5267,28 @@
       <c r="G120" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H120" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I120" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J120" s="33" t="s">
+      <c r="H120" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I120" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J120" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="39" t="s">
+      <c r="A121" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B121" s="34">
+      <c r="B121" s="14">
         <v>39</v>
       </c>
-      <c r="C121" s="35">
+      <c r="C121" s="15">
         <v>11.4</v>
       </c>
-      <c r="D121" s="35"/>
-      <c r="E121" s="36">
+      <c r="D121" s="15"/>
+      <c r="E121" s="16">
         <v>4.5</v>
       </c>
       <c r="F121" s="6" t="s">
@@ -5297,13 +5297,13 @@
       <c r="G121" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H121" s="33">
-        <v>2006</v>
-      </c>
-      <c r="I121" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J121" s="33" t="s">
+      <c r="H121" s="13">
+        <v>2006</v>
+      </c>
+      <c r="I121" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J121" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5334,34 +5334,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="19"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="22">
+      <c r="B2" s="37"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="38">
         <v>8.4</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -5388,16 +5388,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -5487,34 +5487,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="19"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="30">
+      <c r="B2" s="37"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="43">
         <v>11.7</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -5541,16 +5541,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
     </row>
     <row r="5" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -6082,34 +6082,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="19"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="22">
+      <c r="B2" s="37"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="38">
         <v>8.4</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -6136,16 +6136,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">

--- a/CAP2006.xlsx
+++ b/CAP2006.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorrit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929A127E-19D4-4871-86C2-CA86C188242E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494CC967-5D15-4BE2-B74E-3EAE871E672D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1677,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2903,7 +2903,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="15">
-        <v>15.2</v>
+        <v>7.6</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="16"/>
@@ -2931,7 +2931,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="15">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="16"/>
@@ -2959,7 +2959,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="15">
-        <v>11.2</v>
+        <v>14.8</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="16"/>
